--- a/Lab2/Lab2.xlsx
+++ b/Lab2/Lab2.xlsx
@@ -5,117 +5,111 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garku\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Studing\3 Course\5 Sem\МоПТиМ\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C650BB87-E6D4-4B89-9C44-5C7F39F68DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27679E8A-814F-4F92-AB82-84EB0888B37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-112" yWindow="-112" windowWidth="24058" windowHeight="12911" firstSheet="1" activeTab="5" xr2:uid="{EC5F9642-C3DA-4BE7-97F8-2568EB68C183}"/>
+    <workbookView xWindow="-112" yWindow="-112" windowWidth="24058" windowHeight="12911" tabRatio="816" activeTab="2" xr2:uid="{EC5F9642-C3DA-4BE7-97F8-2568EB68C183}"/>
   </bookViews>
   <sheets>
     <sheet name="Симплекс метод" sheetId="1" r:id="rId1"/>
     <sheet name="Поиск решения" sheetId="13" r:id="rId2"/>
-    <sheet name="Отчёт о результатах" sheetId="19" r:id="rId3"/>
-    <sheet name="Sensitivity Report 1" sheetId="20" r:id="rId4"/>
-    <sheet name="Limits Report 1" sheetId="21" r:id="rId5"/>
-    <sheet name="Транспортная задача" sheetId="18" r:id="rId6"/>
+    <sheet name="Графический метод" sheetId="25" r:id="rId3"/>
+    <sheet name="Отчет о результатах" sheetId="22" r:id="rId4"/>
+    <sheet name="Отчет об устойчивости" sheetId="23" r:id="rId5"/>
+    <sheet name="Отчет о пределах" sheetId="24" r:id="rId6"/>
+    <sheet name="Транспортная задача" sheetId="18" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Поиск решения'!$C$4:$D$4</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'Транспортная задача'!$C$24:$F$28</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Транспортная задача'!$C$24:$F$28</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Поиск решения'!$C$12:$C$13</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Транспортная задача'!$C$29:$F$29</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Транспортная задача'!$C$29:$F$29</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Поиск решения'!$C$4:$D$4</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Транспортная задача'!$E$25</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Транспортная задача'!$E$25</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Поиск решения'!$C$4:$D$4</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Транспортная задача'!$F$27</definedName>
-    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Транспортная задача'!$G$24:$G$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Транспортная задача'!$F$27</definedName>
+    <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Транспортная задача'!$G$24:$G$28</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Поиск решения'!$E$4</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'Транспортная задача'!$G$31</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Транспортная задача'!$G$31</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Поиск решения'!$E$12:$E$13</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Транспортная задача'!$C$23:$F$23</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'Транспортная задача'!$C$23:$F$23</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">"integer"</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">50</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">50</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_rhs4" localSheetId="5" hidden="1">'Транспортная задача'!$B$24:$B$28</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_rhs4" localSheetId="6" hidden="1">'Транспортная задача'!$B$24:$B$28</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>Номера итерации</t>
   </si>
@@ -189,60 +183,6 @@
     <t>&lt;=</t>
   </si>
   <si>
-    <t>Microsoft Excel 16.0 Answer Report</t>
-  </si>
-  <si>
-    <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
-  </si>
-  <si>
-    <t>Solver Engine</t>
-  </si>
-  <si>
-    <t>Solver Options</t>
-  </si>
-  <si>
-    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0,000001, Use Automatic Scaling</t>
-  </si>
-  <si>
-    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
-  </si>
-  <si>
-    <t>Objective Cell (Max)</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Original Value</t>
-  </si>
-  <si>
-    <t>Final Value</t>
-  </si>
-  <si>
-    <t>Variable Cells</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Constraints</t>
-  </si>
-  <si>
-    <t>Cell Value</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Slack</t>
-  </si>
-  <si>
     <t>$E$4</t>
   </si>
   <si>
@@ -270,9 +210,6 @@
     <t>$C$12&lt;=$E$12</t>
   </si>
   <si>
-    <t>Binding</t>
-  </si>
-  <si>
     <t>$C$13</t>
   </si>
   <si>
@@ -282,88 +219,142 @@
     <t>$C$13&lt;=$E$13</t>
   </si>
   <si>
-    <t>Contin</t>
-  </si>
-  <si>
-    <t>Engine: Simplex LP</t>
-  </si>
-  <si>
-    <t>Iterations: 2 Subproblems: 0</t>
-  </si>
-  <si>
-    <t>Microsoft Excel 16.0 Sensitivity Report</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Reduced</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>Coefficient</t>
-  </si>
-  <si>
-    <t>Allowable</t>
-  </si>
-  <si>
-    <t>Increase</t>
-  </si>
-  <si>
-    <t>Decrease</t>
-  </si>
-  <si>
-    <t>Shadow</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Constraint</t>
-  </si>
-  <si>
-    <t>R.H. Side</t>
-  </si>
-  <si>
-    <t>Microsoft Excel 16.0 Limits Report</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
     <t>a\b</t>
   </si>
   <si>
     <t>С ОГРАНИЧЕНИЯМИ</t>
   </si>
   <si>
-    <t>Worksheet: [Lab2.xlsx]Поиск решения</t>
-  </si>
-  <si>
-    <t>Report Created: 20.10.2022 12:51:24</t>
-  </si>
-  <si>
-    <t>Solution Time: 0,031 Seconds.</t>
+    <t>Microsoft Excel 16.0 Отчет о результатах</t>
+  </si>
+  <si>
+    <t>Лист: [Lab2.xlsx]Поиск решения</t>
+  </si>
+  <si>
+    <t>Отчет создан: 22.10.2022 9:40:40</t>
+  </si>
+  <si>
+    <t>Результат: Решение найдено. Все ограничения и условия оптимальности выполнены.</t>
+  </si>
+  <si>
+    <t>Модуль поиска решения</t>
+  </si>
+  <si>
+    <t>Модуль: Поиск решения лин. задач симплекс-методом</t>
+  </si>
+  <si>
+    <t>Время решения: 0,031 секунд.</t>
+  </si>
+  <si>
+    <t>Число итераций: 2 Число подзадач: 0</t>
+  </si>
+  <si>
+    <t>Параметры поиска решения</t>
+  </si>
+  <si>
+    <t>Максимальное время Без пределов,  Число итераций Без пределов, Precision 0,000001, Использовать автоматическое масштабирование</t>
+  </si>
+  <si>
+    <t>Максимальное число подзадач Без пределов, Максимальное число целочисленных решений Без пределов, Целочисленное отклонение 1%, Считать неотрицательными</t>
+  </si>
+  <si>
+    <t>Ячейка целевой функции (Максимум)</t>
+  </si>
+  <si>
+    <t>Ячейка</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Исходное значение</t>
+  </si>
+  <si>
+    <t>Окончательное значение</t>
+  </si>
+  <si>
+    <t>Ячейки переменных</t>
+  </si>
+  <si>
+    <t>Целочисленное</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Значение ячейки</t>
+  </si>
+  <si>
+    <t>Формула</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Допуск</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
+  </si>
+  <si>
+    <t>Привязка</t>
+  </si>
+  <si>
+    <t>Окончательное</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Приведенн.</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Коэффициент</t>
+  </si>
+  <si>
+    <t>Допустимое</t>
+  </si>
+  <si>
+    <t>Увеличение</t>
+  </si>
+  <si>
+    <t>Уменьшение</t>
+  </si>
+  <si>
+    <t>Тень</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Ограничение</t>
+  </si>
+  <si>
+    <t>Правая сторона</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о пределах</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Нижний</t>
+  </si>
+  <si>
+    <t>Предел</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Верхний</t>
   </si>
 </sst>
 </file>
@@ -545,7 +536,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,10 +551,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>520262</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C89784-0A19-09B0-30CA-1B17A53DD851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11240814" cy="5760918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -601,7 +647,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -707,7 +753,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1257,12 +1303,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="J14:J15"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="J6:J7"/>
@@ -1271,6 +1311,12 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1408,105 +1454,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7989428-9C15-482B-9B4F-D62E876006FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AAE5F3-75FB-468E-9D2C-6C99FEF040E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2700EE8-B458-404C-BCD5-4C9187B9D8F4}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D16" s="15">
         <v>3800</v>
@@ -1517,32 +1578,32 @@
     </row>
     <row r="19" spans="1:7" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D21" s="16">
         <v>599.99999999999989</v>
@@ -1551,15 +1612,15 @@
         <v>599.99999999999989</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D22" s="15">
         <v>100.00000000000006</v>
@@ -1568,49 +1629,49 @@
         <v>100.00000000000006</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D27" s="16">
         <v>370</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G27" s="14">
         <v>0</v>
@@ -1618,245 +1679,22 @@
     </row>
     <row r="28" spans="1:7" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D28" s="15">
         <v>90</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G28" s="12">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132D80E1-0E29-4DC4-A033-40F8698BEA22}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="14">
-        <v>599.99999999999989</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>5</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0.71428571428571497</v>
-      </c>
-      <c r="H9" s="14">
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="12">
-        <v>100.00000000000006</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1.0000000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="14">
-        <v>370</v>
-      </c>
-      <c r="E15" s="14">
-        <v>8.7499999999999982</v>
-      </c>
-      <c r="F15" s="14">
-        <v>370</v>
-      </c>
-      <c r="G15" s="14">
-        <v>80.000000000000071</v>
-      </c>
-      <c r="H15" s="14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="12">
-        <v>90</v>
-      </c>
-      <c r="E16" s="12">
-        <v>6.2500000000000036</v>
-      </c>
-      <c r="F16" s="12">
-        <v>90</v>
-      </c>
-      <c r="G16" s="12">
-        <v>68.571428571428584</v>
-      </c>
-      <c r="H16" s="12">
-        <v>16.000000000000014</v>
       </c>
     </row>
   </sheetData>
@@ -1865,157 +1703,220 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298DE7DC-20D5-4EFE-B8CC-975C275B799B}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5CCD53-ABA5-42E0-963D-A341F885DD5C}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14">
+        <v>599.99999999999989</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.71428571428571497</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12">
+        <v>100.00000000000006</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>8</v>
+      </c>
+      <c r="G10" s="12">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1.0000000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="F13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="15">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="16">
-        <v>599.99999999999989</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>800.00000000000045</v>
-      </c>
-      <c r="I13" s="16">
-        <v>599.99999999999136</v>
-      </c>
-      <c r="J13" s="16">
-        <v>3799.9999999999573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="15">
-        <v>100.00000000000006</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <v>2999.9999999999995</v>
-      </c>
-      <c r="I14" s="15">
-        <v>100.00000000000098</v>
-      </c>
-      <c r="J14" s="15">
-        <v>3800.0000000000073</v>
+      <c r="D15" s="14">
+        <v>370</v>
+      </c>
+      <c r="E15" s="14">
+        <v>8.7499999999999982</v>
+      </c>
+      <c r="F15" s="14">
+        <v>370</v>
+      </c>
+      <c r="G15" s="14">
+        <v>80.000000000000071</v>
+      </c>
+      <c r="H15" s="14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="12">
+        <v>90</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6.2500000000000036</v>
+      </c>
+      <c r="F16" s="12">
+        <v>90</v>
+      </c>
+      <c r="G16" s="12">
+        <v>68.571428571428584</v>
+      </c>
+      <c r="H16" s="12">
+        <v>16.000000000000014</v>
       </c>
     </row>
   </sheetData>
@@ -2024,10 +1925,171 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B17786-BFFF-4C2E-8A03-ACFA0A9EE5CD}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="16">
+        <v>599.99999999999989</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>800.00000000000045</v>
+      </c>
+      <c r="I13" s="16">
+        <v>599.99999999999136</v>
+      </c>
+      <c r="J13" s="16">
+        <v>3799.9999999999573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15">
+        <v>100.00000000000006</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2999.9999999999995</v>
+      </c>
+      <c r="I14" s="15">
+        <v>100.00000000000098</v>
+      </c>
+      <c r="J14" s="15">
+        <v>3800.0000000000073</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152D960F-C6C4-48C8-9117-7D97EFF6E688}">
   <dimension ref="B4:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -2035,7 +2097,7 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>50</v>
@@ -2137,7 +2199,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
         <v>50</v>
@@ -2287,12 +2349,12 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4">
         <v>50</v>
